--- a/dados/empresas_nao_encontradas_cia.xlsx
+++ b/dados/empresas_nao_encontradas_cia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>cnpj</t>
   </si>
@@ -58,9 +58,6 @@
     <t>10.441.875/0001-82</t>
   </si>
   <si>
-    <t>17.848.459/0001-42</t>
-  </si>
-  <si>
     <t>12.447.077/0001-93</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>UTE MC2 Camacari 1 S/A</t>
   </si>
   <si>
-    <t>Sol Placas</t>
-  </si>
-  <si>
     <t>Brasil Asfaltos Ltda</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>Via Matoim, Braco BC, S/N, Parte I, Distrito Industrial, Candeias, BA</t>
   </si>
   <si>
-    <t>Rodovia BA-522, S/N, Fazenda Mamao, Distrito Industrial, Candeias, BA</t>
-  </si>
-  <si>
     <t>Rod BA-522 Km 1, S/N, Distrito Industrial, Candeias, BA</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>(71) 3525-8050</t>
   </si>
   <si>
-    <t>(75) 99921-3339</t>
-  </si>
-  <si>
     <t>(71) 3118-2100</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t>(71) 99167-2553</t>
   </si>
   <si>
-    <t>solplacas71@gmail.com</t>
-  </si>
-  <si>
     <t>contabilidade@brasquimica.com.br</t>
   </si>
   <si>
@@ -169,9 +154,6 @@
     <t>Fernando Teixeira Alves</t>
   </si>
   <si>
-    <t>Maria Soledade Alcantara de Almeida</t>
-  </si>
-  <si>
     <t>Debora Pinon Lucas</t>
   </si>
   <si>
@@ -187,24 +169,21 @@
     <t>Coordenador de Engenharia</t>
   </si>
   <si>
+    <t>Socia</t>
+  </si>
+  <si>
+    <t>Socia Administradora</t>
+  </si>
+  <si>
+    <t>Diretor</t>
+  </si>
+  <si>
     <t>Proprietaria</t>
   </si>
   <si>
-    <t>Socia</t>
-  </si>
-  <si>
-    <t>Socia Administradora</t>
-  </si>
-  <si>
-    <t>Diretor</t>
-  </si>
-  <si>
     <t>2013-04-11 00:00:00</t>
   </si>
   <si>
-    <t>2015-03-06 00:00:00</t>
-  </si>
-  <si>
     <t>2017-05-23 00:00:00</t>
   </si>
   <si>
@@ -215,9 +194,6 @@
   </si>
   <si>
     <t>2007-05-23 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-08-24 00:00:00</t>
   </si>
   <si>
     <t>2023-04-06 00:00:00</t>
@@ -587,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,25 +615,25 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -665,31 +641,37 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
       <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -697,37 +679,34 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
         <v>52</v>
       </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -735,34 +714,34 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
       </c>
       <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -770,72 +749,37 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
